--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Ephb1</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N2">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q2">
-        <v>4.490141680844445</v>
+        <v>0.160594993744</v>
       </c>
       <c r="R2">
-        <v>40.4112751276</v>
+        <v>1.445354943696</v>
       </c>
       <c r="S2">
-        <v>0.4222432562762945</v>
+        <v>0.04293934202011498</v>
       </c>
       <c r="T2">
-        <v>0.4222432562762946</v>
+        <v>0.04293934202011497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,42 +617,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N3">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q3">
-        <v>4.84250912885711</v>
+        <v>0.008967702741999999</v>
       </c>
       <c r="R3">
-        <v>43.58258215971399</v>
+        <v>0.08070932467799999</v>
       </c>
       <c r="S3">
-        <v>0.4553791324312435</v>
+        <v>0.002397753791673518</v>
       </c>
       <c r="T3">
-        <v>0.4553791324312436</v>
+        <v>0.002397753791673517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.283071</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>0.849213</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.1223776112924619</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.1223776112924619</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.211866666666667</v>
+        <v>0.034731</v>
       </c>
       <c r="N4">
-        <v>6.6356</v>
+        <v>0.104193</v>
       </c>
       <c r="O4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q4">
-        <v>0.6261153092000001</v>
+        <v>0.003991217058</v>
       </c>
       <c r="R4">
-        <v>5.6350377828</v>
+        <v>0.035920953522</v>
       </c>
       <c r="S4">
-        <v>0.05887853563483265</v>
+        <v>0.001067158012429525</v>
       </c>
       <c r="T4">
-        <v>0.05887853563483265</v>
+        <v>0.001067158012429525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H5">
+        <v>6.090071</v>
+      </c>
+      <c r="I5">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J5">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.192424</v>
+      </c>
+      <c r="O5">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P5">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q5">
+        <v>2.836906646900444</v>
+      </c>
+      <c r="R5">
+        <v>25.532159822104</v>
+      </c>
+      <c r="S5">
+        <v>0.7585224293141881</v>
+      </c>
+      <c r="T5">
+        <v>0.7585224293141881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.090071</v>
+      </c>
+      <c r="I6">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J6">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.234107</v>
+      </c>
+      <c r="O6">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P6">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q6">
+        <v>0.1584142501774444</v>
+      </c>
+      <c r="R6">
+        <v>1.425728251597</v>
+      </c>
+      <c r="S6">
+        <v>0.04235626223861342</v>
+      </c>
+      <c r="T6">
+        <v>0.04235626223861342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.283071</v>
-      </c>
-      <c r="H5">
-        <v>0.849213</v>
-      </c>
-      <c r="I5">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J5">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.385444666666666</v>
-      </c>
-      <c r="N5">
-        <v>7.156333999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.5188782080888727</v>
-      </c>
-      <c r="P5">
-        <v>0.5188782080888727</v>
-      </c>
-      <c r="Q5">
-        <v>0.675250207238</v>
-      </c>
-      <c r="R5">
-        <v>6.077251865141999</v>
-      </c>
-      <c r="S5">
-        <v>0.06349907565762922</v>
-      </c>
-      <c r="T5">
-        <v>0.06349907565762922</v>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.090071</v>
+      </c>
+      <c r="I7">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J7">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.034731</v>
+      </c>
+      <c r="N7">
+        <v>0.104193</v>
+      </c>
+      <c r="O7">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P7">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q7">
+        <v>0.070504751967</v>
+      </c>
+      <c r="R7">
+        <v>0.634542767703</v>
+      </c>
+      <c r="S7">
+        <v>0.01885132025709547</v>
+      </c>
+      <c r="T7">
+        <v>0.01885132025709546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.994537</v>
+      </c>
+      <c r="I8">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J8">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.192424</v>
+      </c>
+      <c r="O8">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P8">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q8">
+        <v>0.4632800875208889</v>
+      </c>
+      <c r="R8">
+        <v>4.169520787688</v>
+      </c>
+      <c r="S8">
+        <v>0.1238702506560014</v>
+      </c>
+      <c r="T8">
+        <v>0.1238702506560013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.994537</v>
+      </c>
+      <c r="I9">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J9">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.234107</v>
+      </c>
+      <c r="O9">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P9">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q9">
+        <v>0.02586978593988889</v>
+      </c>
+      <c r="R9">
+        <v>0.232828073459</v>
+      </c>
+      <c r="S9">
+        <v>0.006916975184362198</v>
+      </c>
+      <c r="T9">
+        <v>0.006916975184362197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.994537</v>
+      </c>
+      <c r="I10">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J10">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.034731</v>
+      </c>
+      <c r="N10">
+        <v>0.104193</v>
+      </c>
+      <c r="O10">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P10">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q10">
+        <v>0.011513754849</v>
+      </c>
+      <c r="R10">
+        <v>0.103623793641</v>
+      </c>
+      <c r="S10">
+        <v>0.003078508525521452</v>
+      </c>
+      <c r="T10">
+        <v>0.003078508525521451</v>
       </c>
     </row>
   </sheetData>
